--- a/Boils_per_Charge/Boils_per_Charge.xlsx
+++ b/Boils_per_Charge/Boils_per_Charge.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gtvault-my.sharepoint.com/personal/lcalimlim3_gatech_edu/Documents/Documents/ASE 6002 Portable Kettle/Boils_per_Charge/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gtvault-my.sharepoint.com/personal/lcalimlim3_gatech_edu/Documents/Documents/ASE 6002 Portable Kettle/Components/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="8_{E1B203CD-980D-4B68-9256-E22E05DA1089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F6E375B-4CCE-408F-B86E-8CAFE7745F61}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{E1B203CD-980D-4B68-9256-E22E05DA1089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E466B66-3B5D-4EFD-B9D1-31F5D13E732F}"/>
   <bookViews>
     <workbookView xWindow="7200" yWindow="750" windowWidth="21570" windowHeight="11295" xr2:uid="{8DE6D8F7-A165-49AB-ACB4-90769F3729E6}"/>
   </bookViews>
@@ -449,7 +449,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>599400000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -457,7 +457,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1500</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -465,7 +465,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>569.30293333333304</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -474,7 +474,7 @@
       </c>
       <c r="B6">
         <f>B3/(B4*B5)</f>
-        <v>701.91101538911244</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Boils_per_Charge/Boils_per_Charge.xlsx
+++ b/Boils_per_Charge/Boils_per_Charge.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gtvault-my.sharepoint.com/personal/lcalimlim3_gatech_edu/Documents/Documents/ASE 6002 Portable Kettle/Components/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/07531a99d7244c5b/Documents/GitHub/ASE6002PEK/Boils_per_Charge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{E1B203CD-980D-4B68-9256-E22E05DA1089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E466B66-3B5D-4EFD-B9D1-31F5D13E732F}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{E1B203CD-980D-4B68-9256-E22E05DA1089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C1550A2A-B7C6-44FC-B31B-ED2AAA8B5B84}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="750" windowWidth="21570" windowHeight="11295" xr2:uid="{8DE6D8F7-A165-49AB-ACB4-90769F3729E6}"/>
+    <workbookView xWindow="0" yWindow="5040" windowWidth="38700" windowHeight="15345" xr2:uid="{8DE6D8F7-A165-49AB-ACB4-90769F3729E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -449,7 +449,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>599400000</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -457,7 +457,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -465,7 +465,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>142.39780273333301</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -474,7 +474,7 @@
       </c>
       <c r="B6">
         <f>B3/(B4*B5)</f>
-        <v>1</v>
+        <v>2806.2230759861309</v>
       </c>
     </row>
   </sheetData>

--- a/Boils_per_Charge/Boils_per_Charge.xlsx
+++ b/Boils_per_Charge/Boils_per_Charge.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/07531a99d7244c5b/Documents/GitHub/ASE6002PEK/Boils_per_Charge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{E1B203CD-980D-4B68-9256-E22E05DA1089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C1550A2A-B7C6-44FC-B31B-ED2AAA8B5B84}"/>
+  <xr:revisionPtr revIDLastSave="73" documentId="8_{E1B203CD-980D-4B68-9256-E22E05DA1089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F3C938CE-5F89-45A7-8880-20B2A1A2326F}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5040" windowWidth="38700" windowHeight="15345" xr2:uid="{8DE6D8F7-A165-49AB-ACB4-90769F3729E6}"/>
+    <workbookView xWindow="2055" yWindow="5430" windowWidth="38700" windowHeight="15345" xr2:uid="{8DE6D8F7-A165-49AB-ACB4-90769F3729E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -109,6 +109,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -449,7 +453,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>599400000</v>
+        <v>599400</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -465,7 +469,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>142.39780273333301</v>
+        <v>320.39505615000002</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -474,7 +478,7 @@
       </c>
       <c r="B6">
         <f>B3/(B4*B5)</f>
-        <v>2806.2230759861309</v>
+        <v>1.247210255993833</v>
       </c>
     </row>
   </sheetData>

--- a/Boils_per_Charge/Boils_per_Charge.xlsx
+++ b/Boils_per_Charge/Boils_per_Charge.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/07531a99d7244c5b/Documents/GitHub/ASE6002PEK/Boils_per_Charge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="73" documentId="8_{E1B203CD-980D-4B68-9256-E22E05DA1089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F3C938CE-5F89-45A7-8880-20B2A1A2326F}"/>
+  <xr:revisionPtr revIDLastSave="295" documentId="8_{E1B203CD-980D-4B68-9256-E22E05DA1089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{012FC38A-8C84-467F-B137-F966DE0B6560}"/>
   <bookViews>
     <workbookView xWindow="2055" yWindow="5430" windowWidth="38700" windowHeight="15345" xr2:uid="{8DE6D8F7-A165-49AB-ACB4-90769F3729E6}"/>
   </bookViews>

--- a/Boils_per_Charge/Boils_per_Charge.xlsx
+++ b/Boils_per_Charge/Boils_per_Charge.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/07531a99d7244c5b/Documents/GitHub/ASE6002PEK/Boils_per_Charge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="295" documentId="8_{E1B203CD-980D-4B68-9256-E22E05DA1089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{012FC38A-8C84-467F-B137-F966DE0B6560}"/>
+  <xr:revisionPtr revIDLastSave="3799" documentId="8_{E1B203CD-980D-4B68-9256-E22E05DA1089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F06C9F5D-2E97-4799-AA1D-CB3EBB86EACD}"/>
   <bookViews>
     <workbookView xWindow="2055" yWindow="5430" windowWidth="38700" windowHeight="15345" xr2:uid="{8DE6D8F7-A165-49AB-ACB4-90769F3729E6}"/>
   </bookViews>
@@ -453,7 +453,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>599400</v>
+        <v>621</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -478,7 +478,7 @@
       </c>
       <c r="B6">
         <f>B3/(B4*B5)</f>
-        <v>1.247210255993833</v>
+        <v>1.2921547697233404E-3</v>
       </c>
     </row>
   </sheetData>

--- a/Boils_per_Charge/Boils_per_Charge.xlsx
+++ b/Boils_per_Charge/Boils_per_Charge.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/07531a99d7244c5b/Documents/GitHub/ASE6002PEK/Boils_per_Charge/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gtvault-my.sharepoint.com/personal/lcalimlim3_gatech_edu/Documents/Documents/GitHub/ASE6002PEK/Boils_per_Charge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3799" documentId="8_{E1B203CD-980D-4B68-9256-E22E05DA1089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F06C9F5D-2E97-4799-AA1D-CB3EBB86EACD}"/>
+  <xr:revisionPtr revIDLastSave="3805" documentId="8_{E1B203CD-980D-4B68-9256-E22E05DA1089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{19E5B280-E673-44D9-AAA6-AAE670AB4E7F}"/>
   <bookViews>
-    <workbookView xWindow="2055" yWindow="5430" windowWidth="38700" windowHeight="15345" xr2:uid="{8DE6D8F7-A165-49AB-ACB4-90769F3729E6}"/>
+    <workbookView xWindow="6345" yWindow="1125" windowWidth="21570" windowHeight="11295" xr2:uid="{8DE6D8F7-A165-49AB-ACB4-90769F3729E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -469,7 +469,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>320.39505615000002</v>
+        <v>340.70317355520001</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -478,7 +478,7 @@
       </c>
       <c r="B6">
         <f>B3/(B4*B5)</f>
-        <v>1.2921547697233404E-3</v>
+        <v>1.2151339703706182E-3</v>
       </c>
     </row>
   </sheetData>

--- a/Boils_per_Charge/Boils_per_Charge.xlsx
+++ b/Boils_per_Charge/Boils_per_Charge.xlsx
@@ -8,20 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gtvault-my.sharepoint.com/personal/lcalimlim3_gatech_edu/Documents/Documents/GitHub/ASE6002PEK/Boils_per_Charge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3805" documentId="8_{E1B203CD-980D-4B68-9256-E22E05DA1089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{19E5B280-E673-44D9-AAA6-AAE670AB4E7F}"/>
+  <xr:revisionPtr revIDLastSave="3821" documentId="8_{E1B203CD-980D-4B68-9256-E22E05DA1089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C6A8384E-D0DE-4AFB-B9A9-1290C76DCBED}"/>
   <bookViews>
-    <workbookView xWindow="6345" yWindow="1125" windowWidth="21570" windowHeight="11295" xr2:uid="{8DE6D8F7-A165-49AB-ACB4-90769F3729E6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8DE6D8F7-A165-49AB-ACB4-90769F3729E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Battery_Capacity">Sheet1!$B$3</definedName>
+    <definedName name="Battery_Capacity_Ah">Sheet1!$B$3</definedName>
     <definedName name="Boils_per_Charge">Sheet1!$B$6</definedName>
     <definedName name="T_Boil">Sheet1!$B$5</definedName>
     <definedName name="Watts">Sheet1!$B$4</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,14 +42,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Boils per Charge</t>
   </si>
   <si>
-    <t>Battery_Capacity</t>
-  </si>
-  <si>
     <t>Watts</t>
   </si>
   <si>
@@ -57,6 +54,12 @@
   </si>
   <si>
     <t>Boils_per_Charge</t>
+  </si>
+  <si>
+    <t>input Ah</t>
+  </si>
+  <si>
+    <t>Battery_Capacity_Ah</t>
   </si>
 </sst>
 </file>
@@ -432,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CF350A7-D64C-418A-932B-14BF60BA4C31}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -443,42 +446,45 @@
     <col min="1" max="1" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>455544</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>621</v>
+      <c r="B4">
+        <v>1501</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>1500</v>
+      <c r="B5">
+        <v>56.717311658894097</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>3</v>
-      </c>
-      <c r="B5">
-        <v>340.70317355520001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
       </c>
       <c r="B6">
         <f>B3/(B4*B5)</f>
-        <v>1.2151339703706182E-3</v>
+        <v>5.3509882963305744</v>
       </c>
     </row>
   </sheetData>

--- a/Boils_per_Charge/Boils_per_Charge.xlsx
+++ b/Boils_per_Charge/Boils_per_Charge.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gtvault-my.sharepoint.com/personal/lcalimlim3_gatech_edu/Documents/Documents/GitHub/ASE6002PEK/Boils_per_Charge/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/07531a99d7244c5b/Documents/GitHub/ASE6002PEK/Boils_per_Charge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3821" documentId="8_{E1B203CD-980D-4B68-9256-E22E05DA1089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C6A8384E-D0DE-4AFB-B9A9-1290C76DCBED}"/>
+  <xr:revisionPtr revIDLastSave="4151" documentId="8_{E1B203CD-980D-4B68-9256-E22E05DA1089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{55316440-BFF7-44C1-98EF-CF816304F60F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8DE6D8F7-A165-49AB-ACB4-90769F3729E6}"/>
+    <workbookView xWindow="9105" yWindow="5325" windowWidth="38700" windowHeight="15345" xr2:uid="{8DE6D8F7-A165-49AB-ACB4-90769F3729E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -112,10 +112,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -475,7 +471,7 @@
         <v>2</v>
       </c>
       <c r="B5">
-        <v>56.717311658894097</v>
+        <v>141.79316571261199</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -484,7 +480,7 @@
       </c>
       <c r="B6">
         <f>B3/(B4*B5)</f>
-        <v>5.3509882963305744</v>
+        <v>2.1403970308498534</v>
       </c>
     </row>
   </sheetData>

--- a/Boils_per_Charge/Boils_per_Charge.xlsx
+++ b/Boils_per_Charge/Boils_per_Charge.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/07531a99d7244c5b/Documents/GitHub/ASE6002PEK/Boils_per_Charge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4151" documentId="8_{E1B203CD-980D-4B68-9256-E22E05DA1089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{55316440-BFF7-44C1-98EF-CF816304F60F}"/>
+  <xr:revisionPtr revIDLastSave="17144" documentId="8_{E1B203CD-980D-4B68-9256-E22E05DA1089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{60E2B91F-5AD0-42E4-8E2F-4516EF2981FE}"/>
   <bookViews>
     <workbookView xWindow="9105" yWindow="5325" windowWidth="38700" windowHeight="15345" xr2:uid="{8DE6D8F7-A165-49AB-ACB4-90769F3729E6}"/>
   </bookViews>
@@ -112,6 +112,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -471,7 +475,7 @@
         <v>2</v>
       </c>
       <c r="B5">
-        <v>141.79316571261199</v>
+        <v>283.58911057349502</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -480,7 +484,7 @@
       </c>
       <c r="B6">
         <f>B3/(B4*B5)</f>
-        <v>2.1403970308498534</v>
+        <v>1.0701880275738671</v>
       </c>
     </row>
   </sheetData>
